--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AREPD.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>93.9670844707864</v>
+        <v>90.83900850744227</v>
       </c>
       <c r="C2">
-        <v>92.36537158351142</v>
+        <v>90.15903210483022</v>
       </c>
       <c r="D2">
-        <v>92.21765944925539</v>
+        <v>88.31700381052991</v>
       </c>
       <c r="E2">
-        <v>91.81289573261687</v>
+        <v>91.1467091320265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>99.2655520877034</v>
+        <v>98.37587613993378</v>
       </c>
       <c r="C3">
-        <v>99.16257200882734</v>
+        <v>97.30243364099044</v>
       </c>
       <c r="D3">
-        <v>99.34741022084019</v>
+        <v>98.22366108225965</v>
       </c>
       <c r="E3">
-        <v>99.29345732349839</v>
+        <v>98.00312514745758</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.10983136070722</v>
+        <v>99.25189821715138</v>
       </c>
       <c r="C4">
-        <v>99.03273993966108</v>
+        <v>99.17676852637356</v>
       </c>
       <c r="D4">
-        <v>98.97647406133187</v>
+        <v>99.27027355081542</v>
       </c>
       <c r="E4">
-        <v>99.06368907814628</v>
+        <v>99.28358666821494</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.4885728658282</v>
+        <v>98.73279400035089</v>
       </c>
       <c r="C5">
-        <v>98.56069475744262</v>
+        <v>98.74942663539709</v>
       </c>
       <c r="D5">
-        <v>98.55798118468077</v>
+        <v>98.73160709071686</v>
       </c>
       <c r="E5">
-        <v>98.53935650011192</v>
+        <v>98.71779344194712</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.11148551111748</v>
+        <v>98.32670240854404</v>
       </c>
       <c r="C6">
-        <v>97.94739927541266</v>
+        <v>98.22815838751862</v>
       </c>
       <c r="D6">
-        <v>98.02466739549794</v>
+        <v>98.25168058376293</v>
       </c>
       <c r="E6">
-        <v>98.07943996261803</v>
+        <v>98.20107411073764</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.14342724998019</v>
+        <v>97.26390962487595</v>
       </c>
       <c r="C7">
-        <v>97.12425811046708</v>
+        <v>97.26158248607535</v>
       </c>
       <c r="D7">
-        <v>97.08053399894547</v>
+        <v>97.30807456446634</v>
       </c>
       <c r="E7">
-        <v>97.06609392762196</v>
+        <v>97.29216094839659</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>95.75165456193038</v>
+        <v>95.90080237464352</v>
       </c>
       <c r="C8">
-        <v>95.70262068104739</v>
+        <v>95.86813463132646</v>
       </c>
       <c r="D8">
-        <v>95.73043789077933</v>
+        <v>95.88320732434333</v>
       </c>
       <c r="E8">
-        <v>95.61274569145311</v>
+        <v>95.83807716395438</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AREPD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.26390962487595</v>
+        <v>97.68344439838881</v>
       </c>
       <c r="C7">
-        <v>97.26158248607535</v>
+        <v>97.75535123068441</v>
       </c>
       <c r="D7">
-        <v>97.30807456446634</v>
+        <v>97.79188381272378</v>
       </c>
       <c r="E7">
-        <v>97.29216094839659</v>
+        <v>97.75022338235779</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.26390962487595</v>
+      </c>
+      <c r="C8">
+        <v>97.26158248607535</v>
+      </c>
+      <c r="D8">
+        <v>97.30807456446634</v>
+      </c>
+      <c r="E8">
+        <v>97.29216094839659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>95.90080237464352</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>95.86813463132646</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>95.88320732434333</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>95.83807716395438</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AREPD.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AREPD.xlsx
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.68344439838881</v>
+        <v>97.73187545085479</v>
       </c>
       <c r="C7">
-        <v>97.75535123068441</v>
+        <v>97.74825703922609</v>
       </c>
       <c r="D7">
-        <v>97.79188381272378</v>
+        <v>97.79188635546379</v>
       </c>
       <c r="E7">
-        <v>97.75022338235779</v>
+        <v>97.72524485738487</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.26390962487595</v>
+        <v>97.27415082650515</v>
       </c>
       <c r="C8">
-        <v>97.26158248607535</v>
+        <v>97.22816963485333</v>
       </c>
       <c r="D8">
-        <v>97.30807456446634</v>
+        <v>97.28024873775524</v>
       </c>
       <c r="E8">
-        <v>97.29216094839659</v>
+        <v>97.2303666519815</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>95.90080237464352</v>
+        <v>95.90003212440614</v>
       </c>
       <c r="C9">
-        <v>95.86813463132646</v>
+        <v>95.89506949893246</v>
       </c>
       <c r="D9">
-        <v>95.88320732434333</v>
+        <v>95.88467961110342</v>
       </c>
       <c r="E9">
-        <v>95.83807716395438</v>
+        <v>95.92727481418855</v>
       </c>
     </row>
   </sheetData>
